--- a/Code/Results/Cases/Case_7_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_56/res_line/pl_mw.xlsx
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.168845432433613</v>
+        <v>2.16884543243367</v>
       </c>
       <c r="C3">
-        <v>0.5335751380381168</v>
+        <v>0.5335751380378895</v>
       </c>
       <c r="D3">
-        <v>0.2985337791333791</v>
+        <v>0.2985337791332512</v>
       </c>
       <c r="E3">
-        <v>0.1726003798664522</v>
+        <v>0.1726003798664593</v>
       </c>
       <c r="F3">
-        <v>5.702044604827478</v>
+        <v>5.702044604827421</v>
       </c>
       <c r="G3">
-        <v>0.0007828867811164636</v>
+        <v>0.0007828867812165</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8412351801453113</v>
+        <v>0.8412351801452971</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.94834203394484</v>
+        <v>1.948342033945011</v>
       </c>
       <c r="C4">
-        <v>0.4784887090333712</v>
+        <v>0.478488709033428</v>
       </c>
       <c r="D4">
-        <v>0.275174765403122</v>
+        <v>0.2751747654026531</v>
       </c>
       <c r="E4">
-        <v>0.1564729889442518</v>
+        <v>0.1564729889442589</v>
       </c>
       <c r="F4">
-        <v>5.210952328126552</v>
+        <v>5.210952328126666</v>
       </c>
       <c r="G4">
-        <v>0.000790278999484818</v>
+        <v>0.0007902789994714953</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.859845549303856</v>
+        <v>1.859845549303941</v>
       </c>
       <c r="C5">
         <v>0.4563909304170011</v>
       </c>
       <c r="D5">
-        <v>0.2657965331326295</v>
+        <v>0.2657965331326437</v>
       </c>
       <c r="E5">
-        <v>0.150004319768037</v>
+        <v>0.1500043197680796</v>
       </c>
       <c r="F5">
-        <v>5.013780832354257</v>
+        <v>5.013780832354286</v>
       </c>
       <c r="G5">
-        <v>0.000793325822972999</v>
+        <v>0.0007933258229425219</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7223784949684884</v>
+        <v>0.7223784949685026</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.845226190746445</v>
+        <v>1.845226190746274</v>
       </c>
       <c r="C6">
-        <v>0.4527408417799847</v>
+        <v>0.4527408417802121</v>
       </c>
       <c r="D6">
-        <v>0.2642470263713648</v>
+        <v>0.2642470263711516</v>
       </c>
       <c r="E6">
-        <v>0.1489359404280677</v>
+        <v>0.1489359404279824</v>
       </c>
       <c r="F6">
-        <v>4.981204376549385</v>
+        <v>4.9812043765493</v>
       </c>
       <c r="G6">
-        <v>0.0007938339419609763</v>
+        <v>0.0007938339419705891</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7167568199134422</v>
+        <v>0.7167568199134564</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>1.947143340097</v>
       </c>
       <c r="C7">
-        <v>0.4781893604306049</v>
+        <v>0.4781893604310312</v>
       </c>
       <c r="D7">
-        <v>0.2750477521258432</v>
+        <v>0.2750477521255874</v>
       </c>
       <c r="E7">
-        <v>0.1563853547724676</v>
+        <v>0.1563853547724534</v>
       </c>
       <c r="F7">
         <v>5.208281917755215</v>
       </c>
       <c r="G7">
-        <v>0.0007903199450735484</v>
+        <v>0.000790319945185872</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7559508208962953</v>
+        <v>0.7559508208963024</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.409489294870241</v>
+        <v>2.409489294870355</v>
       </c>
       <c r="C8">
-        <v>0.5937548589471646</v>
+        <v>0.5937548589475057</v>
       </c>
       <c r="D8">
-        <v>0.3240192321877515</v>
+        <v>0.3240192321879363</v>
       </c>
       <c r="E8">
-        <v>0.1902151305924562</v>
+        <v>0.190215130592442</v>
       </c>
       <c r="F8">
-        <v>6.23767960828286</v>
+        <v>6.237679608282946</v>
       </c>
       <c r="G8">
-        <v>0.0007751043265943232</v>
+        <v>0.0007751043265861284</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9338436831146453</v>
+        <v>0.933843683114624</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.380266565756358</v>
+        <v>3.380266565756415</v>
       </c>
       <c r="C9">
-        <v>0.8375429585758241</v>
+        <v>0.8375429585761367</v>
       </c>
       <c r="D9">
         <v>0.4268598006141247</v>
       </c>
       <c r="E9">
-        <v>0.2613942530475981</v>
+        <v>0.2613942530476621</v>
       </c>
       <c r="F9">
         <v>8.394977656341382</v>
       </c>
       <c r="G9">
-        <v>0.0007459906493089824</v>
+        <v>0.0007459906490922669</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.307805741277662</v>
+        <v>1.307805741277718</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.154994618857586</v>
+        <v>4.1549946188577</v>
       </c>
       <c r="C10">
-        <v>1.033646101156023</v>
+        <v>1.033646101156506</v>
       </c>
       <c r="D10">
-        <v>0.5090463488270984</v>
+        <v>0.5090463488268995</v>
       </c>
       <c r="E10">
-        <v>0.3182964006992464</v>
+        <v>0.3182964006992606</v>
       </c>
       <c r="F10">
-        <v>10.11207971436602</v>
+        <v>10.1120797143659</v>
       </c>
       <c r="G10">
-        <v>0.0007246632532902441</v>
+        <v>0.0007246632530601905</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.606640551656895</v>
+        <v>1.606640551656824</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.527264370381204</v>
+        <v>4.52726437038109</v>
       </c>
       <c r="C11">
-        <v>1.128454987086457</v>
+        <v>1.128454987087707</v>
       </c>
       <c r="D11">
-        <v>0.5485854604646647</v>
+        <v>0.548585460464551</v>
       </c>
       <c r="E11">
-        <v>0.3456587785118401</v>
+        <v>0.3456587785118543</v>
       </c>
       <c r="F11">
-        <v>10.93554283643482</v>
+        <v>10.93554283643516</v>
       </c>
       <c r="G11">
-        <v>0.0007148660305355288</v>
+        <v>0.0007148660306364185</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.75035181080068</v>
+        <v>1.750351810800666</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.671781439313349</v>
+        <v>4.671781439313008</v>
       </c>
       <c r="C12">
-        <v>1.165368778323852</v>
+        <v>1.165368778323455</v>
       </c>
       <c r="D12">
-        <v>0.5639432705848719</v>
+        <v>0.5639432705849572</v>
       </c>
       <c r="E12">
-        <v>0.3562835037347369</v>
+        <v>0.3562835037348009</v>
       </c>
       <c r="F12">
-        <v>11.25490673824993</v>
+        <v>11.2549067382497</v>
       </c>
       <c r="G12">
-        <v>0.0007111308242426468</v>
+        <v>0.0007111308242628522</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.806160894725906</v>
+        <v>1.806160894725934</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.640486564566345</v>
+        <v>4.640486564566402</v>
       </c>
       <c r="C13">
-        <v>1.157369906719424</v>
+        <v>1.157369906720305</v>
       </c>
       <c r="D13">
-        <v>0.5606171642227764</v>
+        <v>0.5606171642223217</v>
       </c>
       <c r="E13">
-        <v>0.3539826385553582</v>
+        <v>0.3539826385553297</v>
       </c>
       <c r="F13">
-        <v>11.18576421120099</v>
+        <v>11.18576421120105</v>
       </c>
       <c r="G13">
-        <v>0.0007119366010955927</v>
+        <v>0.0007119366011066819</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.794074631982397</v>
+        <v>1.79407463198244</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.539078245735709</v>
+        <v>4.539078245735425</v>
       </c>
       <c r="C14">
         <v>1.13147026944057</v>
       </c>
       <c r="D14">
-        <v>0.5498407405499108</v>
+        <v>0.5498407405496266</v>
       </c>
       <c r="E14">
         <v>0.3465272738395626</v>
       </c>
       <c r="F14">
-        <v>10.96165659151171</v>
+        <v>10.96165659151177</v>
       </c>
       <c r="G14">
-        <v>0.0007145593137037549</v>
+        <v>0.0007145593135982065</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.477447917777454</v>
+        <v>4.477447917777397</v>
       </c>
       <c r="C15">
-        <v>1.115744721419105</v>
+        <v>1.115744721419958</v>
       </c>
       <c r="D15">
-        <v>0.5432925776306092</v>
+        <v>0.5432925776307798</v>
       </c>
       <c r="E15">
-        <v>0.3419966266761989</v>
+        <v>0.3419966266762771</v>
       </c>
       <c r="F15">
-        <v>10.82541417443434</v>
+        <v>10.82541417443457</v>
       </c>
       <c r="G15">
-        <v>0.0007161621314745032</v>
+        <v>0.0007161621312389974</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.13112093540775</v>
+        <v>4.131120935407694</v>
       </c>
       <c r="C16">
-        <v>1.027579372223443</v>
+        <v>1.027579372223386</v>
       </c>
       <c r="D16">
-        <v>0.5065117770215011</v>
+        <v>0.5065117770212453</v>
       </c>
       <c r="E16">
-        <v>0.3165420166419963</v>
+        <v>0.3165420166419537</v>
       </c>
       <c r="F16">
-        <v>10.05923310908906</v>
+        <v>10.05923310908909</v>
       </c>
       <c r="G16">
-        <v>0.0007253006810932198</v>
+        <v>0.0007253006808728708</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.597426857453641</v>
+        <v>1.597426857453598</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>3.92418867714639</v>
       </c>
       <c r="C17">
-        <v>0.9750595323766333</v>
+        <v>0.9750595323771449</v>
       </c>
       <c r="D17">
-        <v>0.4845479681477229</v>
+        <v>0.484547968147325</v>
       </c>
       <c r="E17">
-        <v>0.3013375162920156</v>
+        <v>0.301337516291909</v>
       </c>
       <c r="F17">
-        <v>9.600985149373486</v>
+        <v>9.600985149373372</v>
       </c>
       <c r="G17">
-        <v>0.0007308750599778098</v>
+        <v>0.0007308750601005796</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.517577344285101</v>
+        <v>1.517577344285058</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.806984889625085</v>
+        <v>3.806984889625255</v>
       </c>
       <c r="C18">
-        <v>0.9453638697306701</v>
+        <v>0.9453638697306133</v>
       </c>
       <c r="D18">
-        <v>0.4721121387744347</v>
+        <v>0.4721121387746336</v>
       </c>
       <c r="E18">
-        <v>0.292727728773194</v>
+        <v>0.2927277287732295</v>
       </c>
       <c r="F18">
-        <v>9.341295926329195</v>
+        <v>9.341295926329309</v>
       </c>
       <c r="G18">
-        <v>0.0007340731452554284</v>
+        <v>0.0007340731451369915</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.47236198305248</v>
+        <v>1.472361983052508</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.767595309508124</v>
+        <v>3.767595309508238</v>
       </c>
       <c r="C19">
-        <v>0.9353918964001195</v>
+        <v>0.9353918964014269</v>
       </c>
       <c r="D19">
-        <v>0.4679334010690184</v>
+        <v>0.46793340106899</v>
       </c>
       <c r="E19">
-        <v>0.2898344955191519</v>
+        <v>0.2898344955191448</v>
       </c>
       <c r="F19">
-        <v>9.253997408724928</v>
+        <v>9.253997408724985</v>
       </c>
       <c r="G19">
-        <v>0.0007351548726892208</v>
+        <v>0.0007351548726827498</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.457167812168677</v>
+        <v>1.457167812168663</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.946024265764436</v>
+        <v>3.946024265764265</v>
       </c>
       <c r="C20">
         <v>0.9805959885715367</v>
@@ -1276,13 +1276,13 @@
         <v>0.4868651506347703</v>
       </c>
       <c r="E20">
-        <v>0.3029417118067599</v>
+        <v>0.3029417118067528</v>
       </c>
       <c r="F20">
-        <v>9.649355080960646</v>
+        <v>9.649355080960618</v>
       </c>
       <c r="G20">
-        <v>0.0007302825766595689</v>
+        <v>0.0007302825767651263</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.526002002088461</v>
+        <v>1.526002002088475</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.568761738562216</v>
+        <v>4.568761738561989</v>
       </c>
       <c r="C21">
-        <v>1.139048268621764</v>
+        <v>1.139048268621792</v>
       </c>
       <c r="D21">
-        <v>0.5529948925911015</v>
+        <v>0.5529948925911867</v>
       </c>
       <c r="E21">
-        <v>0.3487094895308047</v>
+        <v>0.3487094895307052</v>
       </c>
       <c r="F21">
-        <v>11.02726472371705</v>
+        <v>11.02726472371694</v>
       </c>
       <c r="G21">
-        <v>0.0007137897484148269</v>
+        <v>0.0007137897484277041</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.766376003804254</v>
+        <v>1.766376003804226</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.996878314583455</v>
+        <v>4.996878314584023</v>
       </c>
       <c r="C22">
-        <v>1.248638278172251</v>
+        <v>1.248638278172223</v>
       </c>
       <c r="D22">
-        <v>0.5985086019925348</v>
+        <v>0.5985086019927337</v>
       </c>
       <c r="E22">
-        <v>0.3801881807941285</v>
+        <v>0.3801881807941143</v>
       </c>
       <c r="F22">
-        <v>11.97266575436822</v>
+        <v>11.97266575436828</v>
       </c>
       <c r="G22">
-        <v>0.000702856368332683</v>
+        <v>0.0007028563685634605</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.931744979571789</v>
+        <v>1.931744979571803</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.766177654993726</v>
+        <v>4.76617765499401</v>
       </c>
       <c r="C23">
-        <v>1.18951397561122</v>
+        <v>1.189513975611646</v>
       </c>
       <c r="D23">
-        <v>0.573977312801361</v>
+        <v>0.5739773128015315</v>
       </c>
       <c r="E23">
-        <v>0.3632240307027885</v>
+        <v>0.3632240307028525</v>
       </c>
       <c r="F23">
-        <v>11.46341346294378</v>
+        <v>11.46341346294389</v>
       </c>
       <c r="G23">
-        <v>0.0007087103790237141</v>
+        <v>0.0007087103791203731</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.842620327128785</v>
+        <v>1.842620327128756</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.936146950790999</v>
+        <v>3.936146950790885</v>
       </c>
       <c r="C24">
-        <v>0.9780914182996696</v>
+        <v>0.9780914182992433</v>
       </c>
       <c r="D24">
-        <v>0.4858169615674228</v>
+        <v>0.4858169615676218</v>
       </c>
       <c r="E24">
-        <v>0.3022160491478516</v>
+        <v>0.3022160491478587</v>
       </c>
       <c r="F24">
-        <v>9.627475416767908</v>
+        <v>9.62747541676805</v>
       </c>
       <c r="G24">
-        <v>0.0007305504584520364</v>
+        <v>0.000730550458435688</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.52219108102247</v>
+        <v>1.522191081022441</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.108713867423717</v>
+        <v>3.108713867423546</v>
       </c>
       <c r="C25">
-        <v>0.7691548627466602</v>
+        <v>0.7691548627466887</v>
       </c>
       <c r="D25">
-        <v>0.3980803911289996</v>
+        <v>0.3980803911288149</v>
       </c>
       <c r="E25">
-        <v>0.241467121565023</v>
+        <v>0.2414671215649804</v>
       </c>
       <c r="F25">
-        <v>7.792117041762651</v>
+        <v>7.792117041762566</v>
       </c>
       <c r="G25">
-        <v>0.0007538242739919406</v>
+        <v>0.000753824273886039</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.203140837479111</v>
+        <v>1.203140837479083</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_56/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.538403991009886</v>
+        <v>2.459937595602582</v>
       </c>
       <c r="C2">
-        <v>0.6260273653147976</v>
+        <v>0.7661967458544439</v>
       </c>
       <c r="D2">
-        <v>0.3376712133712374</v>
+        <v>0.02326171651576558</v>
       </c>
       <c r="E2">
-        <v>0.1996570369886328</v>
+        <v>0.2731743439222996</v>
       </c>
       <c r="F2">
-        <v>6.524487262274221</v>
+        <v>0.8007473084056329</v>
       </c>
       <c r="G2">
-        <v>0.0007710425356188301</v>
+        <v>0.7215500469950626</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.003187809013187048</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.4516188673175492</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.3161661206978721</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.9834703800679137</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.9823464570457432</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.16884543243367</v>
+        <v>2.142233881702907</v>
       </c>
       <c r="C3">
-        <v>0.5335751380378895</v>
+        <v>0.669410441460542</v>
       </c>
       <c r="D3">
-        <v>0.2985337791332512</v>
+        <v>0.02185362801906976</v>
       </c>
       <c r="E3">
-        <v>0.1726003798664593</v>
+        <v>0.2416722827531785</v>
       </c>
       <c r="F3">
-        <v>5.702044604827421</v>
+        <v>0.7230840301763379</v>
       </c>
       <c r="G3">
-        <v>0.0007828867812165</v>
+        <v>0.6489937388123224</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.001522274806535551</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4242615395605327</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3050836631056413</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8412351801452971</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.8538345084842689</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.948342033945011</v>
+        <v>1.947430833779634</v>
       </c>
       <c r="C4">
-        <v>0.478488709033428</v>
+        <v>0.6100838681911966</v>
       </c>
       <c r="D4">
-        <v>0.2751747654026531</v>
+        <v>0.0209774507574636</v>
       </c>
       <c r="E4">
-        <v>0.1564729889442589</v>
+        <v>0.222418242010253</v>
       </c>
       <c r="F4">
-        <v>5.210952328126666</v>
+        <v>0.6769299095424444</v>
       </c>
       <c r="G4">
-        <v>0.0007902789994714953</v>
+        <v>0.6059723790798159</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0007828146211530385</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4083430930329968</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2991849024473723</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7564118428884967</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.7751451118455392</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.859845549303941</v>
+        <v>1.868082248870905</v>
       </c>
       <c r="C5">
-        <v>0.4563909304170011</v>
+        <v>0.5859219452039497</v>
       </c>
       <c r="D5">
-        <v>0.2657965331326437</v>
+        <v>0.02061750676826435</v>
       </c>
       <c r="E5">
-        <v>0.1500043197680796</v>
+        <v>0.2145870304052977</v>
       </c>
       <c r="F5">
-        <v>5.013780832354286</v>
+        <v>0.6584750267700912</v>
       </c>
       <c r="G5">
-        <v>0.0007933258229425219</v>
+        <v>0.5887921533839346</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0005474040160295957</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4020619896992059</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.2969939669241981</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7223784949685026</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.7431185032340011</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.845226190746274</v>
+        <v>1.854907707026229</v>
       </c>
       <c r="C6">
-        <v>0.4527408417802121</v>
+        <v>0.5819104188283291</v>
       </c>
       <c r="D6">
-        <v>0.2642470263711516</v>
+        <v>0.02055756439999712</v>
       </c>
       <c r="E6">
-        <v>0.1489359404279824</v>
+        <v>0.2132873630205694</v>
       </c>
       <c r="F6">
-        <v>4.9812043765493</v>
+        <v>0.6554310491419884</v>
       </c>
       <c r="G6">
-        <v>0.0007938339419705891</v>
+        <v>0.5859596781578915</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0005121463969881557</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4010310165888598</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.2966425979856773</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7167568199134564</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.7378025093153227</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.947143340097</v>
+        <v>1.946360609264616</v>
       </c>
       <c r="C7">
-        <v>0.4781893604310312</v>
+        <v>0.6097579689913459</v>
       </c>
       <c r="D7">
-        <v>0.2750477521255874</v>
+        <v>0.02097260810856838</v>
       </c>
       <c r="E7">
-        <v>0.1563853547724534</v>
+        <v>0.2223125762555433</v>
       </c>
       <c r="F7">
-        <v>5.208281917755215</v>
+        <v>0.6766796308136662</v>
       </c>
       <c r="G7">
-        <v>0.000790319945185872</v>
+        <v>0.6057393003632541</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0007793796566679667</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4082575701773408</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.2991545120409995</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7559508208963024</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.7747130468229244</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.409489294870355</v>
+        <v>2.350317449165516</v>
       </c>
       <c r="C8">
-        <v>0.5937548589475057</v>
+        <v>0.7327969540585855</v>
       </c>
       <c r="D8">
-        <v>0.3240192321879363</v>
+        <v>0.02277862683571996</v>
       </c>
       <c r="E8">
-        <v>0.190215130592442</v>
+        <v>0.2622896009511138</v>
       </c>
       <c r="F8">
-        <v>6.237679608282946</v>
+        <v>0.773631446640195</v>
       </c>
       <c r="G8">
-        <v>0.0007751043265861284</v>
+        <v>0.6961949167870216</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.00255149606401206</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.4419941555175342</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.3121476192243122</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.933843683114624</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.9379812271563779</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.380266565756415</v>
+        <v>3.146217165369421</v>
       </c>
       <c r="C9">
-        <v>0.8375429585761367</v>
+        <v>0.9754305246542003</v>
       </c>
       <c r="D9">
-        <v>0.4268598006141247</v>
+        <v>0.02622782695377879</v>
       </c>
       <c r="E9">
-        <v>0.2613942530476621</v>
+        <v>0.3417360440439978</v>
       </c>
       <c r="F9">
-        <v>8.394977656341382</v>
+        <v>0.9774397792287317</v>
       </c>
       <c r="G9">
-        <v>0.0007459906490922669</v>
+        <v>0.8872995984780516</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.008525321230912319</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5158621824138692</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.3455321226540775</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.307805741277718</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>1.260599917449653</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.1549946188577</v>
+        <v>3.75403271452052</v>
       </c>
       <c r="C10">
-        <v>1.033646101156506</v>
+        <v>1.156608228840241</v>
       </c>
       <c r="D10">
-        <v>0.5090463488268995</v>
+        <v>0.02976043616174451</v>
       </c>
       <c r="E10">
-        <v>0.3182964006992606</v>
+        <v>0.3747941730601312</v>
       </c>
       <c r="F10">
-        <v>10.1120797143659</v>
+        <v>1.115985957473228</v>
       </c>
       <c r="G10">
-        <v>0.0007246632530601905</v>
+        <v>1.014149363920012</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.01448615056069169</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.5637143361536658</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.3640465558787866</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.606640551656824</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.461666604990285</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.52726437038109</v>
+        <v>4.198176550517815</v>
       </c>
       <c r="C11">
-        <v>1.128454987087707</v>
+        <v>1.251056256313461</v>
       </c>
       <c r="D11">
-        <v>0.548585460464551</v>
+        <v>0.04216307728864876</v>
       </c>
       <c r="E11">
-        <v>0.3456587785118543</v>
+        <v>0.2088158239044589</v>
       </c>
       <c r="F11">
-        <v>10.93554283643516</v>
+        <v>0.9975397543382769</v>
       </c>
       <c r="G11">
-        <v>0.0007148660306364185</v>
+        <v>0.8718915514836141</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.03221339614794516</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.4847131618336249</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2777910378859758</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.750351810800666</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.233394656780064</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.671781439313008</v>
+        <v>4.453989177179039</v>
       </c>
       <c r="C12">
-        <v>1.165368778323455</v>
+        <v>1.293450717854967</v>
       </c>
       <c r="D12">
-        <v>0.5639432705849572</v>
+        <v>0.05410698346428688</v>
       </c>
       <c r="E12">
-        <v>0.3562835037348009</v>
+        <v>0.1273884033281938</v>
       </c>
       <c r="F12">
-        <v>11.2549067382497</v>
+        <v>0.8744368268688021</v>
       </c>
       <c r="G12">
-        <v>0.0007111308242628522</v>
+        <v>0.7351363804145734</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.0696631496291289</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.4124754598418576</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.209986802618527</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.806160894725934</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1.01758666051601</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.640486564566402</v>
+        <v>4.576520942003981</v>
       </c>
       <c r="C13">
-        <v>1.157369906720305</v>
+        <v>1.297719306630199</v>
       </c>
       <c r="D13">
-        <v>0.5606171642223217</v>
+        <v>0.06617605765266887</v>
       </c>
       <c r="E13">
-        <v>0.3539826385553297</v>
+        <v>0.105241511729699</v>
       </c>
       <c r="F13">
-        <v>11.18576421120105</v>
+        <v>0.7405276218696457</v>
       </c>
       <c r="G13">
-        <v>0.0007119366011066819</v>
+        <v>0.5946034940798626</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1237886572019704</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3411046371900568</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.1519672265884573</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.79407463198244</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.8006345706311464</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.539078245735425</v>
+        <v>4.60187547012481</v>
       </c>
       <c r="C14">
-        <v>1.13147026944057</v>
+        <v>1.283496466096494</v>
       </c>
       <c r="D14">
-        <v>0.5498407405496266</v>
+        <v>0.07482710631147427</v>
       </c>
       <c r="E14">
-        <v>0.3465272738395626</v>
+        <v>0.1247323098236226</v>
       </c>
       <c r="F14">
-        <v>10.96165659151177</v>
+        <v>0.6436526169945296</v>
       </c>
       <c r="G14">
-        <v>0.0007145593135982065</v>
+        <v>0.4967979069833177</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1719115303840368</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.292572052639315</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.1171650701953943</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.754913642802393</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.6524880361568961</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.477447917777397</v>
+        <v>4.577968305586239</v>
       </c>
       <c r="C15">
-        <v>1.115744721419958</v>
+        <v>1.271732162108151</v>
       </c>
       <c r="D15">
-        <v>0.5432925776307798</v>
+        <v>0.07663001703190986</v>
       </c>
       <c r="E15">
-        <v>0.3419966266762771</v>
+        <v>0.1334639702722562</v>
       </c>
       <c r="F15">
-        <v>10.82541417443457</v>
+        <v>0.6171183702950884</v>
       </c>
       <c r="G15">
-        <v>0.0007161621312389974</v>
+        <v>0.4710165243054405</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.183943797816255</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2804110987216148</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.1096203398471935</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.731116395041241</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.614118042944618</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.131120935407694</v>
+        <v>4.283871120056006</v>
       </c>
       <c r="C16">
-        <v>1.027579372223386</v>
+        <v>1.191912475487413</v>
       </c>
       <c r="D16">
-        <v>0.5065117770212453</v>
+        <v>0.07210112512493083</v>
       </c>
       <c r="E16">
-        <v>0.3165420166419537</v>
+        <v>0.1247651480026626</v>
       </c>
       <c r="F16">
-        <v>10.05923310908909</v>
+        <v>0.5860329649852858</v>
       </c>
       <c r="G16">
-        <v>0.0007253006808728708</v>
+        <v>0.4465178255271667</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1691029628613734</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2747313115312124</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.1130204501122982</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.597426857453598</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.5798364843221506</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.92418867714639</v>
+        <v>4.046018459418974</v>
       </c>
       <c r="C17">
-        <v>0.9750595323771449</v>
+        <v>1.138486718673676</v>
       </c>
       <c r="D17">
-        <v>0.484547968147325</v>
+        <v>0.06396949892710069</v>
       </c>
       <c r="E17">
-        <v>0.301337516291909</v>
+        <v>0.1019952201269554</v>
       </c>
       <c r="F17">
-        <v>9.600985149373372</v>
+        <v>0.6130491527800359</v>
       </c>
       <c r="G17">
-        <v>0.0007308750601005796</v>
+        <v>0.4787179366035161</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1303522055483768</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2957932605560956</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.1335707734701295</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.517577344285058</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.6290399710924817</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.806984889625255</v>
+        <v>3.832338697782177</v>
       </c>
       <c r="C18">
-        <v>0.9453638697306133</v>
+        <v>1.101865706682531</v>
       </c>
       <c r="D18">
-        <v>0.4721121387746336</v>
+        <v>0.05278572454374597</v>
       </c>
       <c r="E18">
-        <v>0.2927277287732295</v>
+        <v>0.09569318565858298</v>
       </c>
       <c r="F18">
-        <v>9.341295926329309</v>
+        <v>0.6963348151665372</v>
       </c>
       <c r="G18">
-        <v>0.0007340731451369915</v>
+        <v>0.5684911245296718</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07760081414436826</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3445948267003303</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.1755326893098896</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.472361983052508</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.7658747719551471</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.767595309508238</v>
+        <v>3.657740159901266</v>
       </c>
       <c r="C19">
-        <v>0.9353918964014269</v>
+        <v>1.081882419309636</v>
       </c>
       <c r="D19">
-        <v>0.46793340106899</v>
+        <v>0.04131339856406413</v>
       </c>
       <c r="E19">
-        <v>0.2898344955191448</v>
+        <v>0.1499053971406923</v>
       </c>
       <c r="F19">
-        <v>9.253997408724985</v>
+        <v>0.8251361474836756</v>
       </c>
       <c r="G19">
-        <v>0.0007351548726827498</v>
+        <v>0.7072548205694886</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03367810468795085</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.4163847848076756</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.2387017193523242</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.457167812168663</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.9802856125830388</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.946024265764265</v>
+        <v>3.594718446572529</v>
       </c>
       <c r="C20">
-        <v>0.9805959885715367</v>
+        <v>1.108935475694238</v>
       </c>
       <c r="D20">
-        <v>0.4868651506347703</v>
+        <v>0.02887366161145621</v>
       </c>
       <c r="E20">
-        <v>0.3029417118067528</v>
+        <v>0.3648925278057504</v>
       </c>
       <c r="F20">
-        <v>9.649355080960618</v>
+        <v>1.077898841780751</v>
       </c>
       <c r="G20">
-        <v>0.0007302825767651263</v>
+        <v>0.9790191242489783</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.01275175448720933</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.5502051819951674</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.3582360746091027</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.526002002088475</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.407131644680135</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.568761738561989</v>
+        <v>4.035128390782518</v>
       </c>
       <c r="C21">
-        <v>1.139048268621792</v>
+        <v>1.246846834867085</v>
       </c>
       <c r="D21">
-        <v>0.5529948925911867</v>
+        <v>0.02994386372857605</v>
       </c>
       <c r="E21">
-        <v>0.3487094895307052</v>
+        <v>0.4317534728961121</v>
       </c>
       <c r="F21">
-        <v>11.02726472371694</v>
+        <v>1.222038583897486</v>
       </c>
       <c r="G21">
-        <v>0.0007137897484277041</v>
+        <v>1.118071140884098</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.018554785240396</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.6079987025508444</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.3930553103757504</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.766376003804226</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.62210212773266</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.996878314584023</v>
+        <v>4.333991570973978</v>
       </c>
       <c r="C22">
-        <v>1.248638278172223</v>
+        <v>1.338216325005533</v>
       </c>
       <c r="D22">
-        <v>0.5985086019927337</v>
+        <v>0.03116619545726351</v>
       </c>
       <c r="E22">
-        <v>0.3801881807941143</v>
+        <v>0.4623529603627503</v>
       </c>
       <c r="F22">
-        <v>11.97266575436828</v>
+        <v>1.307875253841999</v>
       </c>
       <c r="G22">
-        <v>0.0007028563685634605</v>
+        <v>1.199375657366261</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.02264835274929999</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.6409908758659526</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.4111897394946169</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.931744979571803</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.743875976539414</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.76617765499401</v>
+        <v>4.17430447256686</v>
       </c>
       <c r="C23">
-        <v>1.189513975611646</v>
+        <v>1.289388578357261</v>
       </c>
       <c r="D23">
-        <v>0.5739773128015315</v>
+        <v>0.03051464848936192</v>
       </c>
       <c r="E23">
-        <v>0.3632240307028525</v>
+        <v>0.4459815513521121</v>
       </c>
       <c r="F23">
-        <v>11.46341346294389</v>
+        <v>1.261795687105987</v>
       </c>
       <c r="G23">
-        <v>0.0007087103791203731</v>
+        <v>1.155709600385393</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.02041762672332958</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.6232426322092408</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.4013713469525086</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.842620327128756</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.678797110485192</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.936146950790885</v>
+        <v>3.573094982905843</v>
       </c>
       <c r="C24">
-        <v>0.9780914182992433</v>
+        <v>1.105709864517223</v>
       </c>
       <c r="D24">
-        <v>0.4858169615676218</v>
+        <v>0.02802831192266098</v>
       </c>
       <c r="E24">
-        <v>0.3022160491478587</v>
+        <v>0.3847838489103452</v>
       </c>
       <c r="F24">
-        <v>9.62747541676805</v>
+        <v>1.092832386854724</v>
       </c>
       <c r="G24">
-        <v>0.000730550458435688</v>
+        <v>0.9959926249395608</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.01292846156244576</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.5589445790152752</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.3671111562903633</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.522191081022441</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.434064614211096</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.108713867423546</v>
+        <v>2.930260262315585</v>
       </c>
       <c r="C25">
-        <v>0.7691548627466887</v>
+        <v>0.9095626678341659</v>
       </c>
       <c r="D25">
-        <v>0.3980803911288149</v>
+        <v>0.02530459316717426</v>
       </c>
       <c r="E25">
-        <v>0.2414671215649804</v>
+        <v>0.320079142844456</v>
       </c>
       <c r="F25">
-        <v>7.792117041762566</v>
+        <v>0.9206121551300868</v>
       </c>
       <c r="G25">
-        <v>0.000753824273886039</v>
+        <v>0.8338963047193744</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.006604861994536915</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.4949447849779318</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.3355489377451306</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.203140837479083</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>1.172951823845835</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_56/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.459937595602582</v>
+        <v>2.439049395438644</v>
       </c>
       <c r="C2">
-        <v>0.7661967458544439</v>
+        <v>0.8444015031399204</v>
       </c>
       <c r="D2">
-        <v>0.02326171651576558</v>
+        <v>0.02920733177776569</v>
       </c>
       <c r="E2">
-        <v>0.2731743439222996</v>
+        <v>0.2621926321252133</v>
       </c>
       <c r="F2">
-        <v>0.8007473084056329</v>
+        <v>0.7068514796188055</v>
       </c>
       <c r="G2">
-        <v>0.7215500469950626</v>
+        <v>0.5986721383973759</v>
       </c>
       <c r="H2">
-        <v>0.003187809013187048</v>
+        <v>0.002737426033377899</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4516188673175492</v>
+        <v>0.4506883973761973</v>
       </c>
       <c r="K2">
-        <v>0.3161661206978721</v>
+        <v>0.2574372520368122</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.157338099782006</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.05742357061620851</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9823464570457432</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.9947526044788617</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.142233881702907</v>
+        <v>2.128577331015038</v>
       </c>
       <c r="C3">
-        <v>0.669410441460542</v>
+        <v>0.7314552632851417</v>
       </c>
       <c r="D3">
-        <v>0.02185362801906976</v>
+        <v>0.02650858343875484</v>
       </c>
       <c r="E3">
-        <v>0.2416722827531785</v>
+        <v>0.2334353193154115</v>
       </c>
       <c r="F3">
-        <v>0.7230840301763379</v>
+        <v>0.6461788501920296</v>
       </c>
       <c r="G3">
-        <v>0.6489937388123224</v>
+        <v>0.5440852086857717</v>
       </c>
       <c r="H3">
-        <v>0.001522274806535551</v>
+        <v>0.001305471490841814</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4242615395605327</v>
+        <v>0.4298013225875081</v>
       </c>
       <c r="K3">
-        <v>0.3050836631056413</v>
+        <v>0.255239479041915</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.162212188026821</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.05070995253087496</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.8538345084842689</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.8644024772341368</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.947430833779634</v>
+        <v>1.937875159636747</v>
       </c>
       <c r="C4">
-        <v>0.6100838681911966</v>
+        <v>0.6624058227125147</v>
       </c>
       <c r="D4">
-        <v>0.0209774507574636</v>
+        <v>0.02485256594021834</v>
       </c>
       <c r="E4">
-        <v>0.222418242010253</v>
+        <v>0.2158095355798793</v>
       </c>
       <c r="F4">
-        <v>0.6769299095424444</v>
+        <v>0.6099789584964341</v>
       </c>
       <c r="G4">
-        <v>0.6059723790798159</v>
+        <v>0.5118112696975885</v>
       </c>
       <c r="H4">
-        <v>0.0007828146211530385</v>
+        <v>0.000669625367468285</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4083430930329968</v>
+        <v>0.4173306729845336</v>
       </c>
       <c r="K4">
-        <v>0.2991849024473723</v>
+        <v>0.2544915950600704</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1653524113192084</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.0474298858130151</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.7751451118455392</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.7845409989416723</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.868082248870905</v>
+        <v>1.860122840409929</v>
       </c>
       <c r="C5">
-        <v>0.5859219452039497</v>
+        <v>0.6343318536129061</v>
       </c>
       <c r="D5">
-        <v>0.02061750676826435</v>
+        <v>0.02417798602900234</v>
       </c>
       <c r="E5">
-        <v>0.2145870304052977</v>
+        <v>0.2086293890905431</v>
       </c>
       <c r="F5">
-        <v>0.6584750267700912</v>
+        <v>0.5954685072373707</v>
       </c>
       <c r="G5">
-        <v>0.5887921533839346</v>
+        <v>0.4989431076913178</v>
       </c>
       <c r="H5">
-        <v>0.0005474040160295957</v>
+        <v>0.0004673268266677244</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4020619896992059</v>
+        <v>0.4123307865476136</v>
       </c>
       <c r="K5">
-        <v>0.2969939669241981</v>
+        <v>0.2543281432392561</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1666686494194742</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.0462969449960795</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.7431185032340011</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.7520282640242471</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.854907707026229</v>
+        <v>1.847209128229736</v>
       </c>
       <c r="C6">
-        <v>0.5819104188283291</v>
+        <v>0.6296737594785498</v>
       </c>
       <c r="D6">
-        <v>0.02055756439999712</v>
+        <v>0.02406598862258491</v>
       </c>
       <c r="E6">
-        <v>0.2132873630205694</v>
+        <v>0.2074371302813312</v>
       </c>
       <c r="F6">
-        <v>0.6554310491419884</v>
+        <v>0.593072964467936</v>
       </c>
       <c r="G6">
-        <v>0.5859596781578915</v>
+        <v>0.4968226824009037</v>
       </c>
       <c r="H6">
-        <v>0.0005121463969881557</v>
+        <v>0.0004370421197168461</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4010310165888598</v>
+        <v>0.4115053127919737</v>
       </c>
       <c r="K6">
-        <v>0.2966425979856773</v>
+        <v>0.2543092553810702</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1668894040865325</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.0461208974744256</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.7378025093153227</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.7466311039074895</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.946360609264616</v>
+        <v>1.936810273026197</v>
       </c>
       <c r="C7">
-        <v>0.6097579689913459</v>
+        <v>0.6610724949254916</v>
       </c>
       <c r="D7">
-        <v>0.02097260810856838</v>
+        <v>0.02496865926901037</v>
       </c>
       <c r="E7">
-        <v>0.2223125762555433</v>
+        <v>0.2157126245459651</v>
       </c>
       <c r="F7">
-        <v>0.6766796308136662</v>
+        <v>0.6076266213511516</v>
       </c>
       <c r="G7">
-        <v>0.6057393003632541</v>
+        <v>0.5145853284118829</v>
       </c>
       <c r="H7">
-        <v>0.0007793796566679667</v>
+        <v>0.0006647818491918311</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4082575701773408</v>
+        <v>0.4104394447558661</v>
       </c>
       <c r="K7">
-        <v>0.2991545120409995</v>
+        <v>0.2535224849711462</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1649153465084581</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.04713515475366492</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.7747130468229244</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.7839379560191162</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.350317449165516</v>
+        <v>2.331940272116071</v>
       </c>
       <c r="C8">
-        <v>0.7327969540585855</v>
+        <v>0.8021632813222936</v>
       </c>
       <c r="D8">
-        <v>0.02277862683571996</v>
+        <v>0.02870856745497008</v>
       </c>
       <c r="E8">
-        <v>0.2622896009511138</v>
+        <v>0.2522727477719684</v>
       </c>
       <c r="F8">
-        <v>0.773631446640195</v>
+        <v>0.678555372284805</v>
       </c>
       <c r="G8">
-        <v>0.6961949167870216</v>
+        <v>0.5894447016665083</v>
       </c>
       <c r="H8">
-        <v>0.00255149606401206</v>
+        <v>0.002179848283162755</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4419941555175342</v>
+        <v>0.4210362728202597</v>
       </c>
       <c r="K8">
-        <v>0.3121476192243122</v>
+        <v>0.2534013313427543</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1576168806851008</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.05391034286094154</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.9379812271563779</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.94920534108563</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.146217165369421</v>
+        <v>3.107374746101016</v>
       </c>
       <c r="C9">
-        <v>0.9754305246542003</v>
+        <v>1.085233443846107</v>
       </c>
       <c r="D9">
-        <v>0.02622782695377879</v>
+        <v>0.03559454777551707</v>
       </c>
       <c r="E9">
-        <v>0.3417360440439978</v>
+        <v>0.3244715250825649</v>
       </c>
       <c r="F9">
-        <v>0.9774397792287317</v>
+        <v>0.8349455999114355</v>
       </c>
       <c r="G9">
-        <v>0.8872995984780516</v>
+        <v>0.7367165537166187</v>
       </c>
       <c r="H9">
-        <v>0.008525321230912319</v>
+        <v>0.007294698912728381</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5158621824138692</v>
+        <v>0.4692814698641712</v>
       </c>
       <c r="K9">
-        <v>0.3455321226540775</v>
+        <v>0.2619124532188088</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.146161185855739</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.07526018441157589</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.260599917449653</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.275872689849493</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.75403271452052</v>
+        <v>3.69772393694177</v>
       </c>
       <c r="C10">
-        <v>1.156608228840241</v>
+        <v>1.288650086785196</v>
       </c>
       <c r="D10">
-        <v>0.02976043616174451</v>
+        <v>0.04265254367739146</v>
       </c>
       <c r="E10">
-        <v>0.3747941730601312</v>
+        <v>0.3524727597778394</v>
       </c>
       <c r="F10">
-        <v>1.115985957473228</v>
+        <v>0.9277474531531027</v>
       </c>
       <c r="G10">
-        <v>1.014149363920012</v>
+        <v>0.8526045644340172</v>
       </c>
       <c r="H10">
-        <v>0.01448615056069169</v>
+        <v>0.01234967108361484</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.5637143361536658</v>
+        <v>0.4602661881106513</v>
       </c>
       <c r="K10">
-        <v>0.3640465558787866</v>
+        <v>0.2587852839991029</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1337968903023672</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.09044202541240409</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.461666604990285</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.477873097036564</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.198176550517815</v>
+        <v>4.136718475675025</v>
       </c>
       <c r="C11">
-        <v>1.251056256313461</v>
+        <v>1.360585361134554</v>
       </c>
       <c r="D11">
-        <v>0.04216307728864876</v>
+        <v>0.05916938466753408</v>
       </c>
       <c r="E11">
-        <v>0.2088158239044589</v>
+        <v>0.1896112972384927</v>
       </c>
       <c r="F11">
-        <v>0.9975397543382769</v>
+        <v>0.8089533547643697</v>
       </c>
       <c r="G11">
-        <v>0.8718915514836141</v>
+        <v>0.7767016091851389</v>
       </c>
       <c r="H11">
-        <v>0.03221339614794516</v>
+        <v>0.02995191919375628</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4847131618336249</v>
+        <v>0.3307673315540569</v>
       </c>
       <c r="K11">
-        <v>0.2777910378859758</v>
+        <v>0.1873939993298599</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1042291595640279</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.06863896987827189</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.233394656780064</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.244092098960451</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.453989177179039</v>
+        <v>4.391988626448324</v>
       </c>
       <c r="C12">
-        <v>1.293450717854967</v>
+        <v>1.3819550219078</v>
       </c>
       <c r="D12">
-        <v>0.05410698346428688</v>
+        <v>0.07313710894888459</v>
       </c>
       <c r="E12">
-        <v>0.1273884033281938</v>
+        <v>0.1109091226720214</v>
       </c>
       <c r="F12">
-        <v>0.8744368268688021</v>
+        <v>0.702705283329351</v>
       </c>
       <c r="G12">
-        <v>0.7351363804145734</v>
+        <v>0.6818543020472561</v>
       </c>
       <c r="H12">
-        <v>0.0696631496291289</v>
+        <v>0.06746686388001422</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4124754598418576</v>
+        <v>0.2568791824817538</v>
       </c>
       <c r="K12">
-        <v>0.209986802618527</v>
+        <v>0.1386871989468546</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.08632217342773352</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.05071078232963089</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.01758666051601</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.024656580023574</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.576520942003981</v>
+        <v>4.517672724137242</v>
       </c>
       <c r="C13">
-        <v>1.297719306630199</v>
+        <v>1.368157165948219</v>
       </c>
       <c r="D13">
-        <v>0.06617605765266887</v>
+        <v>0.08473404987065436</v>
       </c>
       <c r="E13">
-        <v>0.105241511729699</v>
+        <v>0.09146406814781116</v>
       </c>
       <c r="F13">
-        <v>0.7405276218696457</v>
+        <v>0.6022364906229285</v>
       </c>
       <c r="G13">
-        <v>0.5946034940798626</v>
+        <v>0.5621631928130597</v>
       </c>
       <c r="H13">
-        <v>0.1237886572019704</v>
+        <v>0.1218105813307062</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3411046371900568</v>
+        <v>0.2206550254126469</v>
       </c>
       <c r="K13">
-        <v>0.1519672265884573</v>
+        <v>0.1035157016658452</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.07493031665767269</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.03516671034998176</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.8006345706311464</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.8053919903152433</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.60187547012481</v>
+        <v>4.546825092867948</v>
       </c>
       <c r="C14">
-        <v>1.283496466096494</v>
+        <v>1.342580490498904</v>
       </c>
       <c r="D14">
-        <v>0.07482710631147427</v>
+        <v>0.09169288484751092</v>
       </c>
       <c r="E14">
-        <v>0.1247323098236226</v>
+        <v>0.1127811148028375</v>
       </c>
       <c r="F14">
-        <v>0.6436526169945296</v>
+        <v>0.5342917829354903</v>
       </c>
       <c r="G14">
-        <v>0.4967979069833177</v>
+        <v>0.4709775697674559</v>
       </c>
       <c r="H14">
-        <v>0.1719115303840368</v>
+        <v>0.1701358868337906</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.292572052639315</v>
+        <v>0.2081597887059345</v>
       </c>
       <c r="K14">
-        <v>0.1171650701953943</v>
+        <v>0.08473980869692888</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.06945728188945566</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.02562398925940457</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.6524880361568961</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.6560941308613124</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.577968305586239</v>
+        <v>4.524635502844944</v>
       </c>
       <c r="C15">
-        <v>1.271732162108151</v>
+        <v>1.32862741544858</v>
       </c>
       <c r="D15">
-        <v>0.07663001703190986</v>
+        <v>0.09256690304152215</v>
       </c>
       <c r="E15">
-        <v>0.1334639702722562</v>
+        <v>0.1220964754896521</v>
       </c>
       <c r="F15">
-        <v>0.6171183702950884</v>
+        <v>0.5175510009931443</v>
       </c>
       <c r="G15">
-        <v>0.4710165243054405</v>
+        <v>0.4441829576642959</v>
       </c>
       <c r="H15">
-        <v>0.183943797816255</v>
+        <v>0.1822546559149032</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2804110987216148</v>
+        <v>0.2099550048381076</v>
       </c>
       <c r="K15">
-        <v>0.1096203398471935</v>
+        <v>0.08158756394573885</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.06881695108632435</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.02340284185371821</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.614118042944618</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.6175732111598577</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.283871120056006</v>
+        <v>4.238070568528144</v>
       </c>
       <c r="C16">
-        <v>1.191912475487413</v>
+        <v>1.253021317897037</v>
       </c>
       <c r="D16">
-        <v>0.07210112512493083</v>
+        <v>0.08416615778610748</v>
       </c>
       <c r="E16">
-        <v>0.1247651480026626</v>
+        <v>0.1151328716616149</v>
       </c>
       <c r="F16">
-        <v>0.5860329649852858</v>
+        <v>0.5120880332876681</v>
       </c>
       <c r="G16">
-        <v>0.4465178255271667</v>
+        <v>0.3994460558220112</v>
       </c>
       <c r="H16">
-        <v>0.1691029628613734</v>
+        <v>0.1677963210614024</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2747313115312124</v>
+        <v>0.2538191706458832</v>
       </c>
       <c r="K16">
-        <v>0.1130204501122982</v>
+        <v>0.09182810725162582</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.07466447636809193</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.02270363992362512</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.5798364843221506</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.5842375095790047</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.046018459418974</v>
+        <v>4.003826288252355</v>
       </c>
       <c r="C17">
-        <v>1.138486718673676</v>
+        <v>1.207071532433531</v>
       </c>
       <c r="D17">
-        <v>0.06396949892710069</v>
+        <v>0.07464684410449252</v>
       </c>
       <c r="E17">
-        <v>0.1019952201269554</v>
+        <v>0.09264704558225034</v>
       </c>
       <c r="F17">
-        <v>0.6130491527800359</v>
+        <v>0.5423979452545495</v>
       </c>
       <c r="G17">
-        <v>0.4787179366035161</v>
+        <v>0.414828811875168</v>
       </c>
       <c r="H17">
-        <v>0.1303522055483768</v>
+        <v>0.1292202145187247</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2957932605560956</v>
+        <v>0.2929976433573529</v>
       </c>
       <c r="K17">
-        <v>0.1335707734701295</v>
+        <v>0.1099445686603886</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.08272095293213511</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.0268851520709994</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.6290399710924817</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.6347232979685486</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.832338697782177</v>
+        <v>3.790925053201477</v>
       </c>
       <c r="C18">
-        <v>1.101865706682531</v>
+        <v>1.183692376966519</v>
       </c>
       <c r="D18">
-        <v>0.05278572454374597</v>
+        <v>0.0632699865594688</v>
       </c>
       <c r="E18">
-        <v>0.09569318565858298</v>
+        <v>0.0851454462206005</v>
       </c>
       <c r="F18">
-        <v>0.6963348151665372</v>
+        <v>0.6131919528484957</v>
       </c>
       <c r="G18">
-        <v>0.5684911245296718</v>
+        <v>0.4814510228843716</v>
       </c>
       <c r="H18">
-        <v>0.07760081414436826</v>
+        <v>0.07649286770880082</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3445948267003303</v>
+        <v>0.3422751068652303</v>
       </c>
       <c r="K18">
-        <v>0.1755326893098896</v>
+        <v>0.1410440490117466</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.09521980128246277</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.03713067049286245</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.7658747719551471</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.7737911030037736</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.657740159901266</v>
+        <v>3.61470032297359</v>
       </c>
       <c r="C19">
-        <v>1.081882419309636</v>
+        <v>1.18131673876843</v>
       </c>
       <c r="D19">
-        <v>0.04131339856406413</v>
+        <v>0.05197495416092579</v>
       </c>
       <c r="E19">
-        <v>0.1499053971406923</v>
+        <v>0.1364869325617413</v>
       </c>
       <c r="F19">
-        <v>0.8251361474836756</v>
+        <v>0.7172287051893278</v>
       </c>
       <c r="G19">
-        <v>0.7072548205694886</v>
+        <v>0.5891352106320085</v>
       </c>
       <c r="H19">
-        <v>0.03367810468795085</v>
+        <v>0.03243984472128858</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.4163847848076756</v>
+        <v>0.4023595468463981</v>
       </c>
       <c r="K19">
-        <v>0.2387017193523242</v>
+        <v>0.1853196099426988</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1120830733953504</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.053570395169249</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.9802856125830388</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.9914179727132364</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.594718446572529</v>
+        <v>3.543323654766198</v>
       </c>
       <c r="C20">
-        <v>1.108935475694238</v>
+        <v>1.238631071747761</v>
       </c>
       <c r="D20">
-        <v>0.02887366161145621</v>
+        <v>0.04031420635100602</v>
       </c>
       <c r="E20">
-        <v>0.3648925278057504</v>
+        <v>0.3439451815318719</v>
       </c>
       <c r="F20">
-        <v>1.077898841780751</v>
+        <v>0.9097537379299609</v>
       </c>
       <c r="G20">
-        <v>0.9790191242489783</v>
+        <v>0.8098105827389332</v>
       </c>
       <c r="H20">
-        <v>0.01275175448720933</v>
+        <v>0.01089956019477967</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.5502051819951674</v>
+        <v>0.4850695947076957</v>
       </c>
       <c r="K20">
-        <v>0.3582360746091027</v>
+        <v>0.2621589239178377</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1379553658860182</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.08730272667833461</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.407131644680135</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.423743615196798</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.035128390782518</v>
+        <v>3.968098633878526</v>
       </c>
       <c r="C21">
-        <v>1.246846834867085</v>
+        <v>1.378334209264324</v>
       </c>
       <c r="D21">
-        <v>0.02994386372857605</v>
+        <v>0.04678568781696413</v>
       </c>
       <c r="E21">
-        <v>0.4317534728961121</v>
+        <v>0.4057862248144914</v>
       </c>
       <c r="F21">
-        <v>1.222038583897486</v>
+        <v>0.9694831470546319</v>
       </c>
       <c r="G21">
-        <v>1.118071140884098</v>
+        <v>0.9913074138568874</v>
       </c>
       <c r="H21">
-        <v>0.018554785240396</v>
+        <v>0.01568129759462678</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.6079987025508444</v>
+        <v>0.3794880255688469</v>
       </c>
       <c r="K21">
-        <v>0.3930553103757504</v>
+        <v>0.2566602555489865</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1274262935205606</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.09851120658409585</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.62210212773266</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.636582800106879</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.333991570973978</v>
+        <v>4.256219589827424</v>
       </c>
       <c r="C22">
-        <v>1.338216325005533</v>
+        <v>1.467806776026748</v>
       </c>
       <c r="D22">
-        <v>0.03116619545726351</v>
+        <v>0.05202516422193781</v>
       </c>
       <c r="E22">
-        <v>0.4623529603627503</v>
+        <v>0.4334208328792073</v>
       </c>
       <c r="F22">
-        <v>1.307875253841999</v>
+        <v>0.9983421403978809</v>
       </c>
       <c r="G22">
-        <v>1.199375657366261</v>
+        <v>1.110343283679242</v>
       </c>
       <c r="H22">
-        <v>0.02264835274929999</v>
+        <v>0.01902992159064731</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.6409908758659526</v>
+        <v>0.3095840490178148</v>
       </c>
       <c r="K22">
-        <v>0.4111897394946169</v>
+        <v>0.248861912232293</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.119269643623003</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1044295755022446</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.743875976539414</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.756148864605919</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.17430447256686</v>
+        <v>4.102376860633456</v>
       </c>
       <c r="C23">
-        <v>1.289388578357261</v>
+        <v>1.422727643341261</v>
       </c>
       <c r="D23">
-        <v>0.03051464848936192</v>
+        <v>0.04879637774619283</v>
       </c>
       <c r="E23">
-        <v>0.4459815513521121</v>
+        <v>0.4186060991737861</v>
       </c>
       <c r="F23">
-        <v>1.261795687105987</v>
+        <v>0.9884071680676954</v>
       </c>
       <c r="G23">
-        <v>1.155709600385393</v>
+        <v>1.037658361484304</v>
       </c>
       <c r="H23">
-        <v>0.02041762672332958</v>
+        <v>0.01722332892896161</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.6232426322092408</v>
+        <v>0.3596140883591801</v>
       </c>
       <c r="K23">
-        <v>0.4013713469525086</v>
+        <v>0.2552224369984799</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.12434072660335</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1021766496960197</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.678797110485192</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.692758520729569</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.573094982905843</v>
+        <v>3.521593825817945</v>
       </c>
       <c r="C24">
-        <v>1.105709864517223</v>
+        <v>1.2371588257501</v>
       </c>
       <c r="D24">
-        <v>0.02802831192266098</v>
+        <v>0.03933997754646867</v>
       </c>
       <c r="E24">
-        <v>0.3847838489103452</v>
+        <v>0.3633591205745361</v>
       </c>
       <c r="F24">
-        <v>1.092832386854724</v>
+        <v>0.9219232381835809</v>
       </c>
       <c r="G24">
-        <v>0.9959926249395608</v>
+        <v>0.8224308256401827</v>
       </c>
       <c r="H24">
-        <v>0.01292846156244576</v>
+        <v>0.01105183533324927</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.5589445790152752</v>
+        <v>0.4931155723554355</v>
       </c>
       <c r="K24">
-        <v>0.3671111562903633</v>
+        <v>0.2684901848010277</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1403958750262539</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.08960686433220744</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.434064614211096</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.451105611923722</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.930260262315585</v>
+        <v>2.897403564812009</v>
       </c>
       <c r="C25">
-        <v>0.9095626678341659</v>
+        <v>1.009670031165257</v>
       </c>
       <c r="D25">
-        <v>0.02530459316717426</v>
+        <v>0.03353738930353245</v>
       </c>
       <c r="E25">
-        <v>0.320079142844456</v>
+        <v>0.3048428137726447</v>
       </c>
       <c r="F25">
-        <v>0.9206121551300868</v>
+        <v>0.7945193467278102</v>
       </c>
       <c r="G25">
-        <v>0.8338963047193744</v>
+        <v>0.6911933156826535</v>
       </c>
       <c r="H25">
-        <v>0.006604861994536915</v>
+        <v>0.005658770950296876</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.4949447849779318</v>
+        <v>0.4653398076424224</v>
       </c>
       <c r="K25">
-        <v>0.3355489377451306</v>
+        <v>0.2603025883228014</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1496518481506506</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.0691534290456346</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.172951823845835</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>1.18744407230929</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
